--- a/biology/Microbiologie/Balneolota/Balneolota.xlsx
+++ b/biology/Microbiologie/Balneolota/Balneolota.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Balneolota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Balneola qui est le genre type de cet embranchement[1].
-En 2022 selon la LPSN  (11 novembre 2022)[2] cet embranchement ne comporte qu'une seule classe, les Balneolia Munoz et al. 2017.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Balneolota sont un embranchement (ou phylum, ou encore division) du règne des Bacteria. Son nom provient de Balneola qui est le genre type de cet embranchement.
+En 2022 selon la LPSN  (11 novembre 2022) cet embranchement ne comporte qu'une seule classe, les Balneolia Munoz et al. 2017.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet embranchement est proposé en 2016 par R.L. Hahnke et al. sous le nom de « Balneolaeota »[1]. Il est validé cinq ans plus tard par Oren et Garrity[3] après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Balneola, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet embranchement est proposé en 2016 par R.L. Hahnke et al. sous le nom de « Balneolaeota ». Il est validé cinq ans plus tard par Oren et Garrity après un renommage conforme au code de nomenclature bactérienne (le nom de l'embranchement devant être dérivé de celui de son genre type, en l'occurrence Balneola, par adjonction du suffixe -ota conformément à une décision de l'ICSP en 2021).
 </t>
         </is>
       </c>
